--- a/JSON tools.xlsx
+++ b/JSON tools.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\IntelliJ\jsonTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Business Value (BV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jako użytkownik mogę skorzystać z aplikacji za pomocą interfejsu użytkownika </t>
   </si>
   <si>
     <t>Zadania</t>
@@ -158,15 +155,6 @@
     <t>Implementacja klasy odpowiedzialnej za porównywanie dwóch struktur JSON</t>
   </si>
   <si>
-    <t>Backend klienta w Node.js</t>
-  </si>
-  <si>
-    <t>Frontend klienta w Node.js</t>
-  </si>
-  <si>
-    <t>Dodatki dla całego projektu</t>
-  </si>
-  <si>
     <t>Code review + refaktoryzacja kodu</t>
   </si>
   <si>
@@ -200,30 +188,39 @@
     <t>4h</t>
   </si>
   <si>
-    <t>16h</t>
-  </si>
-  <si>
     <t>Kolumna1</t>
   </si>
   <si>
     <t>28h</t>
-  </si>
-  <si>
-    <t>Razem : 92h</t>
-  </si>
-  <si>
-    <t>23 h/osobę</t>
-  </si>
-  <si>
-    <t>11,5 ManDays</t>
-  </si>
-  <si>
-    <t>Jako programista mogę uzyskać strukturę w formacie JSON nie zawierającą własności o pustej zawartości(null, [], itd.), aby uprościć strukturę</t>
   </si>
   <si>
     <t>o Kształt danych nie ulega zmianie
 o Z obiektów JSON usuwane są wszystkie własności o pustej zawartości
 o Zgłoszenie błędu dla niepoprawnego JSON-a</t>
+  </si>
+  <si>
+    <t>Jako programista mogę uzyskać strukturę w formacie JSON nie zawierającą własności o pustej zawartości(null, [], "", itd.), aby uprościć strukturę</t>
+  </si>
+  <si>
+    <t>7BV</t>
+  </si>
+  <si>
+    <t>Działające API, w którym brakuje tlyko testów</t>
+  </si>
+  <si>
+    <t>Razem : 72h</t>
+  </si>
+  <si>
+    <t>18 h/osobę</t>
+  </si>
+  <si>
+    <t>9 ManDays</t>
+  </si>
+  <si>
+    <t>Dodatki do funkcjonowania RESTa</t>
+  </si>
+  <si>
+    <t>20h</t>
   </si>
 </sst>
 </file>
@@ -335,7 +332,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -365,6 +362,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
@@ -480,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:D44" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A4:D44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:D35" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A4:D35"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Element rejestru produktu" dataDxfId="3"/>
     <tableColumn id="2" name="Zadania" dataDxfId="2"/>
@@ -827,17 +825,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -854,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -886,100 +884,121 @@
     </row>
     <row r="2" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
       </c>
+      <c r="C2" s="3">
+        <v>28</v>
+      </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
       </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>12</v>
       </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
       </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
       </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>8</v>
       </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -998,23 +1017,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1022,259 +1047,290 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JSON tools.xlsx
+++ b/JSON tools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9408" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9408" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -852,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
